--- a/examples/ipv6/suppression-attack/random_seed_list.xlsx
+++ b/examples/ipv6/suppression-attack/random_seed_list.xlsx
@@ -205,7 +205,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -365,35 +365,56 @@
       <c r="A19" s="0" t="n">
         <v>869457</v>
       </c>
+      <c r="D19" s="1" t="n">
+        <v>979845</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>886804</v>
       </c>
+      <c r="D20" s="1" t="n">
+        <v>984949</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>491295</v>
       </c>
+      <c r="D21" s="1" t="n">
+        <v>994649</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>623260</v>
       </c>
+      <c r="D22" s="1" t="n">
+        <v>884649</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>928491</v>
       </c>
+      <c r="D23" s="1" t="n">
+        <v>881119</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>625856</v>
       </c>
+      <c r="D24" s="1" t="n">
+        <v>987987</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>701410</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>987999</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/examples/ipv6/suppression-attack/random_seed_list.xlsx
+++ b/examples/ipv6/suppression-attack/random_seed_list.xlsx
@@ -205,7 +205,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -421,25 +421,40 @@
       <c r="A26" s="0" t="n">
         <v>875528</v>
       </c>
+      <c r="D26" s="1" t="n">
+        <v>998899</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>389576</v>
       </c>
+      <c r="D27" s="1" t="n">
+        <v>918819</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>557755</v>
       </c>
+      <c r="D28" s="1" t="n">
+        <v>917719</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>527654</v>
       </c>
+      <c r="D29" s="1" t="n">
+        <v>916619</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>710455</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>123765</v>
       </c>
     </row>
   </sheetData>

--- a/examples/ipv6/suppression-attack/random_seed_list.xlsx
+++ b/examples/ipv6/suppression-attack/random_seed_list.xlsx
@@ -54,7 +54,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -65,6 +65,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF200"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC2E0AE"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -108,7 +114,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -117,11 +123,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -150,7 +160,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFC2E0AE"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -202,10 +212,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -221,24 +231,33 @@
       <c r="D1" s="1" t="n">
         <v>123456</v>
       </c>
+      <c r="F1" s="2" t="n">
+        <v>765765</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>487575</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>495363</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>293847</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>427044</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4" t="n">
         <v>427044</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>124856</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>876976</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -248,13 +267,19 @@
       <c r="D4" s="1" t="n">
         <v>124897</v>
       </c>
+      <c r="F4" s="2" t="n">
+        <v>124897</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="4" t="n">
         <v>691856</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>169859</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>111685</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -264,6 +289,9 @@
       <c r="D6" s="1" t="n">
         <v>154258</v>
       </c>
+      <c r="F6" s="2" t="n">
+        <v>549849</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -272,6 +300,9 @@
       <c r="D7" s="1" t="n">
         <v>155458</v>
       </c>
+      <c r="F7" s="2" t="n">
+        <v>686986</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -280,6 +311,9 @@
       <c r="D8" s="1" t="n">
         <v>124785</v>
       </c>
+      <c r="F8" s="2" t="n">
+        <v>979845</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -288,6 +322,9 @@
       <c r="D9" s="1" t="n">
         <v>125484</v>
       </c>
+      <c r="F9" s="2" t="n">
+        <v>916619</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -295,6 +332,9 @@
       </c>
       <c r="D10" s="1" t="n">
         <v>125499</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>398097</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/examples/ipv6/suppression-attack/random_seed_list.xlsx
+++ b/examples/ipv6/suppression-attack/random_seed_list.xlsx
@@ -215,7 +215,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/examples/ipv6/suppression-attack/random_seed_list.xlsx
+++ b/examples/ipv6/suppression-attack/random_seed_list.xlsx
@@ -215,7 +215,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/examples/ipv6/suppression-attack/random_seed_list.xlsx
+++ b/examples/ipv6/suppression-attack/random_seed_list.xlsx
@@ -215,7 +215,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/examples/ipv6/suppression-attack/random_seed_list.xlsx
+++ b/examples/ipv6/suppression-attack/random_seed_list.xlsx
@@ -215,7 +215,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/examples/ipv6/suppression-attack/random_seed_list.xlsx
+++ b/examples/ipv6/suppression-attack/random_seed_list.xlsx
@@ -24,7 +24,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -49,6 +49,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FFCE181E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF407927"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -114,7 +121,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -132,6 +139,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -195,7 +210,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF407927"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -215,7 +230,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -357,7 +372,10 @@
       <c r="A13" s="0" t="n">
         <v>247933</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="5" t="n">
+        <v>963284</v>
+      </c>
+      <c r="E13" s="6" t="n">
         <v>113686</v>
       </c>
     </row>
